--- a/src/teste_gc.xlsx
+++ b/src/teste_gc.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gsoli\Desktop\StreamLit Testes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gsoli\Desktop\streamlit_gc\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C0E50F1-2883-4B17-8459-B4F34D67C7C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7E45B83-84E7-4074-B1BD-517126E76524}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$S$56</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -96,7 +99,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -152,7 +155,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -458,10 +461,13 @@
   <dimension ref="A1:S56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T45" sqref="T45"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
@@ -887,7 +893,7 @@
         <v>19</v>
       </c>
       <c r="E8">
-        <v>2.02</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="F8">
         <v>88.31</v>

--- a/src/teste_gc.xlsx
+++ b/src/teste_gc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gsoli\Desktop\streamlit_gc\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7E45B83-84E7-4074-B1BD-517126E76524}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89E80825-7D49-4314-90CD-E14925B24D2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -893,7 +893,7 @@
         <v>19</v>
       </c>
       <c r="E8">
-        <v>2.0499999999999998</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="F8">
         <v>88.31</v>

--- a/src/teste_gc.xlsx
+++ b/src/teste_gc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gsoli\Desktop\streamlit_gc\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89E80825-7D49-4314-90CD-E14925B24D2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7574DD68-25CA-4ADC-86DF-5A278C2F6FEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -461,7 +461,7 @@
   <dimension ref="A1:S56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -893,7 +893,7 @@
         <v>19</v>
       </c>
       <c r="E8">
-        <v>2.0299999999999998</v>
+        <v>2.13</v>
       </c>
       <c r="F8">
         <v>88.31</v>

--- a/src/teste_gc.xlsx
+++ b/src/teste_gc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gsoli\Desktop\streamlit_gc\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7574DD68-25CA-4ADC-86DF-5A278C2F6FEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8B1D876-3A57-4E22-8BC1-D7DC06742DB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -461,7 +461,7 @@
   <dimension ref="A1:S56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -893,7 +893,7 @@
         <v>19</v>
       </c>
       <c r="E8">
-        <v>2.13</v>
+        <v>2.33</v>
       </c>
       <c r="F8">
         <v>88.31</v>

--- a/src/teste_gc.xlsx
+++ b/src/teste_gc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gsoli\Desktop\streamlit_gc\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8B1D876-3A57-4E22-8BC1-D7DC06742DB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{431D93E7-8644-4DD0-B2E1-A4D781447ACA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -461,7 +461,7 @@
   <dimension ref="A1:S56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -893,7 +893,7 @@
         <v>19</v>
       </c>
       <c r="E8">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="F8">
         <v>88.31</v>

--- a/src/teste_gc.xlsx
+++ b/src/teste_gc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gsoli\Desktop\streamlit_gc\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{431D93E7-8644-4DD0-B2E1-A4D781447ACA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D66FA3E-58A8-4C5D-B7C1-B74B6B9F6871}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -461,7 +461,7 @@
   <dimension ref="A1:S56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -893,7 +893,7 @@
         <v>19</v>
       </c>
       <c r="E8">
-        <v>2.5</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="F8">
         <v>88.31</v>

--- a/src/teste_gc.xlsx
+++ b/src/teste_gc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gsoli\Desktop\streamlit_gc\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D66FA3E-58A8-4C5D-B7C1-B74B6B9F6871}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9048B5FE-25CA-4573-A0E9-D061CD7CF583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -893,7 +893,7 @@
         <v>19</v>
       </c>
       <c r="E8">
-        <v>2.2200000000000002</v>
+        <v>2.14</v>
       </c>
       <c r="F8">
         <v>88.31</v>

--- a/src/teste_gc.xlsx
+++ b/src/teste_gc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gsoli\Desktop\streamlit_gc\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9048B5FE-25CA-4573-A0E9-D061CD7CF583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F5DF986-A934-42B6-A25C-E0610D82BEE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -893,7 +893,7 @@
         <v>19</v>
       </c>
       <c r="E8">
-        <v>2.14</v>
+        <v>2.44</v>
       </c>
       <c r="F8">
         <v>88.31</v>

--- a/src/teste_gc.xlsx
+++ b/src/teste_gc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gsoli\Desktop\streamlit_gc\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F5DF986-A934-42B6-A25C-E0610D82BEE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{623FC74B-C9BE-4FA0-9756-5FFC08C18B63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -893,7 +893,7 @@
         <v>19</v>
       </c>
       <c r="E8">
-        <v>2.44</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="F8">
         <v>88.31</v>

--- a/src/teste_gc.xlsx
+++ b/src/teste_gc.xlsx
@@ -766,48 +766,58 @@
         <v>45292</v>
       </c>
       <c r="B6" t="n">
-        <v>2122400</v>
+        <v>9368</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Ratinho</t>
+          <t>donkgordo</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>83.84999999999999</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1141</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>847</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>325</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
+        <v>53</v>
+      </c>
+      <c r="N6" t="n">
+        <v>21.52830188679245</v>
+      </c>
+      <c r="O6" t="n">
+        <v>15.9811320754717</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3.490566037735849</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.8301886792452831</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.3773584905660378</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -1046,48 +1056,58 @@
         <v>45323</v>
       </c>
       <c r="B11" t="n">
-        <v>2122400</v>
+        <v>9368</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Ratinho</t>
+          <t>donkgordo</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>81.33</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1054</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>848</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>288</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>149</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
+        <v>50</v>
+      </c>
+      <c r="N11" t="n">
+        <v>21.08</v>
+      </c>
+      <c r="O11" t="n">
+        <v>16.96</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1326,48 +1346,58 @@
         <v>45352</v>
       </c>
       <c r="B16" t="n">
-        <v>2122400</v>
+        <v>9368</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Ratinho</t>
+          <t>donkgordo</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>92.06</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="N16" t="n">
+        <v>23.75</v>
+      </c>
+      <c r="O16" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="P16" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1606,48 +1636,58 @@
         <v>45383</v>
       </c>
       <c r="B21" t="n">
-        <v>2122400</v>
+        <v>9368</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Ratinho</t>
+          <t>donkgordo</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>84.84999999999999</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>307</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>316</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
+        <v>17</v>
+      </c>
+      <c r="N21" t="n">
+        <v>18.05882352941176</v>
+      </c>
+      <c r="O21" t="n">
+        <v>18.58823529411765</v>
+      </c>
+      <c r="P21" t="n">
+        <v>2.882352941176471</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1.647058823529412</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0.1764705882352941</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1886,48 +1926,58 @@
         <v>45413</v>
       </c>
       <c r="B26" t="n">
-        <v>2122400</v>
+        <v>9368</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Ratinho</t>
+          <t>donkgordo</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>93.36</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>2142</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>1996</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>527</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>362</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
+        <v>121</v>
+      </c>
+      <c r="N26" t="n">
+        <v>17.70247933884297</v>
+      </c>
+      <c r="O26" t="n">
+        <v>16.49586776859504</v>
+      </c>
+      <c r="P26" t="n">
+        <v>2.991735537190082</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0.8760330578512396</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0.2066115702479339</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -2166,48 +2216,58 @@
         <v>45444</v>
       </c>
       <c r="B31" t="n">
-        <v>2122400</v>
+        <v>9368</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Ratinho</t>
+          <t>donkgordo</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>92.16</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>2748</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>2567</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>697</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>507</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>187</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
+        <v>151</v>
+      </c>
+      <c r="N31" t="n">
+        <v>18.19867549668874</v>
+      </c>
+      <c r="O31" t="n">
+        <v>17</v>
+      </c>
+      <c r="P31" t="n">
+        <v>3.357615894039735</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1.23841059602649</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0.2317880794701987</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -2446,48 +2506,58 @@
         <v>45474</v>
       </c>
       <c r="B36" t="n">
-        <v>2122400</v>
+        <v>9368</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Ratinho</t>
+          <t>donkgordo</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>91.7</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>4404</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>4042</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>1168</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>761</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>241</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
+        <v>245</v>
+      </c>
+      <c r="N36" t="n">
+        <v>17.97551020408163</v>
+      </c>
+      <c r="O36" t="n">
+        <v>16.49795918367347</v>
+      </c>
+      <c r="P36" t="n">
+        <v>3.106122448979592</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0.9836734693877551</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0.2653061224489796</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -2716,48 +2786,58 @@
         <v>45505</v>
       </c>
       <c r="B41" t="n">
-        <v>2122400</v>
+        <v>9368</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Ratinho</t>
+          <t>donkgordo</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>90.53</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>4258</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>3949</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1104</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>735</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>290</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
+        <v>239</v>
+      </c>
+      <c r="N41" t="n">
+        <v>17.81589958158996</v>
+      </c>
+      <c r="O41" t="n">
+        <v>16.52301255230126</v>
+      </c>
+      <c r="P41" t="n">
+        <v>3.075313807531381</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>1.213389121338912</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0.2635983263598327</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -2986,48 +3066,58 @@
         <v>45536</v>
       </c>
       <c r="B46" t="n">
-        <v>2122400</v>
+        <v>9368</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Ratinho</t>
+          <t>donkgordo</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>89.77</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>4949</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>4358</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>1303</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>858</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>316</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
-      <c r="O46" t="inlineStr"/>
-      <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
+        <v>279</v>
+      </c>
+      <c r="N46" t="n">
+        <v>17.73835125448029</v>
+      </c>
+      <c r="O46" t="n">
+        <v>15.62007168458781</v>
+      </c>
+      <c r="P46" t="n">
+        <v>3.075268817204301</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>1.132616487455197</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0.3082437275985663</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -3246,48 +3336,58 @@
         <v>45566</v>
       </c>
       <c r="B51" t="n">
-        <v>2122400</v>
+        <v>9368</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Ratinho</t>
+          <t>donkgordo</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="E51" t="n">
-        <v>0</v>
+        <v>86.90000000000001</v>
       </c>
       <c r="F51" t="n">
-        <v>0</v>
+        <v>3738</v>
       </c>
       <c r="G51" t="n">
-        <v>0</v>
+        <v>3485</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>956</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>667</v>
       </c>
       <c r="J51" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="K51" t="n">
-        <v>0</v>
+        <v>215</v>
       </c>
       <c r="L51" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="M51" t="n">
-        <v>0</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
-      <c r="O51" t="inlineStr"/>
-      <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
+        <v>217</v>
+      </c>
+      <c r="N51" t="n">
+        <v>17.2258064516129</v>
+      </c>
+      <c r="O51" t="n">
+        <v>16.05990783410138</v>
+      </c>
+      <c r="P51" t="n">
+        <v>3.073732718894009</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>0.9907834101382489</v>
+      </c>
+      <c r="R51" t="n">
+        <v>0.2580645161290323</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -3516,48 +3616,58 @@
         <v>45597</v>
       </c>
       <c r="B56" t="n">
-        <v>2122400</v>
+        <v>9368</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Ratinho</t>
+          <t>donkgordo</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="E56" t="n">
-        <v>0</v>
+        <v>85.42</v>
       </c>
       <c r="F56" t="n">
-        <v>0</v>
+        <v>3848</v>
       </c>
       <c r="G56" t="n">
-        <v>0</v>
+        <v>3640</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>967</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>630</v>
       </c>
       <c r="J56" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="K56" t="n">
-        <v>0</v>
+        <v>322</v>
       </c>
       <c r="L56" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="M56" t="n">
-        <v>0</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
-      <c r="O56" t="inlineStr"/>
-      <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr"/>
+        <v>230</v>
+      </c>
+      <c r="N56" t="n">
+        <v>16.7304347826087</v>
+      </c>
+      <c r="O56" t="n">
+        <v>15.82608695652174</v>
+      </c>
+      <c r="P56" t="n">
+        <v>2.739130434782609</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="R56" t="n">
+        <v>0.2608695652173913</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
@@ -3796,57 +3906,57 @@
         <v>45627</v>
       </c>
       <c r="B61" t="n">
-        <v>2122400</v>
+        <v>9368</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Ratinho</t>
+          <t>donkgordo</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>0.63</v>
+        <v>1</v>
       </c>
       <c r="E61" t="n">
-        <v>55.16</v>
+        <v>82.64</v>
       </c>
       <c r="F61" t="n">
-        <v>258</v>
+        <v>3643</v>
       </c>
       <c r="G61" t="n">
-        <v>411</v>
+        <v>3625</v>
       </c>
       <c r="H61" t="n">
-        <v>47</v>
+        <v>909</v>
       </c>
       <c r="I61" t="n">
-        <v>39</v>
+        <v>609</v>
       </c>
       <c r="J61" t="n">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="K61" t="n">
-        <v>26</v>
+        <v>249</v>
       </c>
       <c r="L61" t="n">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="M61" t="n">
-        <v>28</v>
+        <v>230</v>
       </c>
       <c r="N61" t="n">
-        <v>9.214285714285714</v>
+        <v>15.83913043478261</v>
       </c>
       <c r="O61" t="n">
-        <v>14.67857142857143</v>
+        <v>15.76086956521739</v>
       </c>
       <c r="P61" t="n">
-        <v>1.392857142857143</v>
+        <v>2.647826086956522</v>
       </c>
       <c r="Q61" t="n">
-        <v>0.9285714285714286</v>
+        <v>1.082608695652174</v>
       </c>
       <c r="R61" t="n">
-        <v>0.1785714285714286</v>
+        <v>0.208695652173913</v>
       </c>
     </row>
   </sheetData>

--- a/src/teste_gc.xlsx
+++ b/src/teste_gc.xlsx
@@ -766,57 +766,57 @@
         <v>45292</v>
       </c>
       <c r="B6" t="n">
-        <v>9368</v>
+        <v>1188388</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>donkgordo</t>
+          <t>Iron</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1.35</v>
+        <v>0.96</v>
       </c>
       <c r="E6" t="n">
-        <v>83.84999999999999</v>
+        <v>62.2</v>
       </c>
       <c r="F6" t="n">
-        <v>1141</v>
+        <v>50</v>
       </c>
       <c r="G6" t="n">
-        <v>847</v>
+        <v>52</v>
       </c>
       <c r="H6" t="n">
-        <v>325</v>
+        <v>11</v>
       </c>
       <c r="I6" t="n">
-        <v>185</v>
+        <v>6</v>
       </c>
       <c r="J6" t="n">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="K6" t="n">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="L6" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="M6" t="n">
-        <v>53</v>
+        <v>3</v>
       </c>
       <c r="N6" t="n">
-        <v>21.52830188679245</v>
+        <v>16.66666666666667</v>
       </c>
       <c r="O6" t="n">
-        <v>15.9811320754717</v>
+        <v>17.33333333333333</v>
       </c>
       <c r="P6" t="n">
-        <v>3.490566037735849</v>
+        <v>2</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.8301886792452831</v>
+        <v>3</v>
       </c>
       <c r="R6" t="n">
-        <v>0.3773584905660378</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="7">
@@ -1056,57 +1056,57 @@
         <v>45323</v>
       </c>
       <c r="B11" t="n">
-        <v>9368</v>
+        <v>1188388</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>donkgordo</t>
+          <t>Iron</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1.24</v>
+        <v>1.91</v>
       </c>
       <c r="E11" t="n">
-        <v>81.33</v>
+        <v>77.43000000000001</v>
       </c>
       <c r="F11" t="n">
-        <v>1054</v>
+        <v>42</v>
       </c>
       <c r="G11" t="n">
-        <v>848</v>
+        <v>22</v>
       </c>
       <c r="H11" t="n">
-        <v>288</v>
+        <v>12</v>
       </c>
       <c r="I11" t="n">
-        <v>149</v>
+        <v>8</v>
       </c>
       <c r="J11" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="K11" t="n">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="L11" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="N11" t="n">
-        <v>21.08</v>
+        <v>21</v>
       </c>
       <c r="O11" t="n">
-        <v>16.96</v>
+        <v>11</v>
       </c>
       <c r="P11" t="n">
-        <v>2.98</v>
+        <v>4</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.9399999999999999</v>
+        <v>3</v>
       </c>
       <c r="R11" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1346,58 +1346,48 @@
         <v>45352</v>
       </c>
       <c r="B16" t="n">
-        <v>9368</v>
+        <v>1188388</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>donkgordo</t>
+          <t>Iron</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>92.06</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>4</v>
-      </c>
-      <c r="N16" t="n">
-        <v>23.75</v>
-      </c>
-      <c r="O16" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="P16" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="R16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1636,57 +1626,57 @@
         <v>45383</v>
       </c>
       <c r="B21" t="n">
-        <v>9368</v>
+        <v>1188388</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>donkgordo</t>
+          <t>Iron</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.97</v>
+        <v>0.86</v>
       </c>
       <c r="E21" t="n">
-        <v>84.84999999999999</v>
+        <v>85.05</v>
       </c>
       <c r="F21" t="n">
-        <v>307</v>
+        <v>30</v>
       </c>
       <c r="G21" t="n">
-        <v>316</v>
+        <v>35</v>
       </c>
       <c r="H21" t="n">
-        <v>76</v>
+        <v>9</v>
       </c>
       <c r="I21" t="n">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="J21" t="n">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="K21" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="N21" t="n">
-        <v>18.05882352941176</v>
+        <v>15</v>
       </c>
       <c r="O21" t="n">
-        <v>18.58823529411765</v>
+        <v>17.5</v>
       </c>
       <c r="P21" t="n">
-        <v>2.882352941176471</v>
+        <v>3.5</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.647058823529412</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1764705882352941</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1926,58 +1916,48 @@
         <v>45413</v>
       </c>
       <c r="B26" t="n">
-        <v>9368</v>
+        <v>1188388</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>donkgordo</t>
+          <t>Iron</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>1.07</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>93.36</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>2142</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1996</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>527</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>362</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>106</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>121</v>
-      </c>
-      <c r="N26" t="n">
-        <v>17.70247933884297</v>
-      </c>
-      <c r="O26" t="n">
-        <v>16.49586776859504</v>
-      </c>
-      <c r="P26" t="n">
-        <v>2.991735537190082</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0.8760330578512396</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0.2066115702479339</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N26" t="inlineStr"/>
+      <c r="O26" t="inlineStr"/>
+      <c r="P26" t="inlineStr"/>
+      <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -2216,58 +2196,48 @@
         <v>45444</v>
       </c>
       <c r="B31" t="n">
-        <v>9368</v>
+        <v>1188388</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>donkgordo</t>
+          <t>Iron</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1.07</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>92.16</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>2748</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2567</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>697</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>507</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>187</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>151</v>
-      </c>
-      <c r="N31" t="n">
-        <v>18.19867549668874</v>
-      </c>
-      <c r="O31" t="n">
-        <v>17</v>
-      </c>
-      <c r="P31" t="n">
-        <v>3.357615894039735</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>1.23841059602649</v>
-      </c>
-      <c r="R31" t="n">
-        <v>0.2317880794701987</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N31" t="inlineStr"/>
+      <c r="O31" t="inlineStr"/>
+      <c r="P31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -2506,58 +2476,48 @@
         <v>45474</v>
       </c>
       <c r="B36" t="n">
-        <v>9368</v>
+        <v>1188388</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>donkgordo</t>
+          <t>Iron</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1.09</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>91.7</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>4404</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>4042</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>1168</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>761</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>241</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>245</v>
-      </c>
-      <c r="N36" t="n">
-        <v>17.97551020408163</v>
-      </c>
-      <c r="O36" t="n">
-        <v>16.49795918367347</v>
-      </c>
-      <c r="P36" t="n">
-        <v>3.106122448979592</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>0.9836734693877551</v>
-      </c>
-      <c r="R36" t="n">
-        <v>0.2653061224489796</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr"/>
+      <c r="R36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -2786,58 +2746,48 @@
         <v>45505</v>
       </c>
       <c r="B41" t="n">
-        <v>9368</v>
+        <v>1188388</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>donkgordo</t>
+          <t>Iron</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>90.53</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>4258</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3949</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>1104</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>735</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>290</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>239</v>
-      </c>
-      <c r="N41" t="n">
-        <v>17.81589958158996</v>
-      </c>
-      <c r="O41" t="n">
-        <v>16.52301255230126</v>
-      </c>
-      <c r="P41" t="n">
-        <v>3.075313807531381</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>1.213389121338912</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0.2635983263598327</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N41" t="inlineStr"/>
+      <c r="O41" t="inlineStr"/>
+      <c r="P41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr"/>
+      <c r="R41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -3066,58 +3016,48 @@
         <v>45536</v>
       </c>
       <c r="B46" t="n">
-        <v>9368</v>
+        <v>1188388</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>donkgordo</t>
+          <t>Iron</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>1.14</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>89.77</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>4949</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>4358</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>1303</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>858</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>316</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>279</v>
-      </c>
-      <c r="N46" t="n">
-        <v>17.73835125448029</v>
-      </c>
-      <c r="O46" t="n">
-        <v>15.62007168458781</v>
-      </c>
-      <c r="P46" t="n">
-        <v>3.075268817204301</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>1.132616487455197</v>
-      </c>
-      <c r="R46" t="n">
-        <v>0.3082437275985663</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N46" t="inlineStr"/>
+      <c r="O46" t="inlineStr"/>
+      <c r="P46" t="inlineStr"/>
+      <c r="Q46" t="inlineStr"/>
+      <c r="R46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -3336,58 +3276,48 @@
         <v>45566</v>
       </c>
       <c r="B51" t="n">
-        <v>9368</v>
+        <v>1188388</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>donkgordo</t>
+          <t>Iron</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>1.07</v>
+        <v>0</v>
       </c>
       <c r="E51" t="n">
-        <v>86.90000000000001</v>
+        <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>3738</v>
+        <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>3485</v>
+        <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>956</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>667</v>
+        <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="K51" t="n">
-        <v>215</v>
+        <v>0</v>
       </c>
       <c r="L51" t="n">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="M51" t="n">
-        <v>217</v>
-      </c>
-      <c r="N51" t="n">
-        <v>17.2258064516129</v>
-      </c>
-      <c r="O51" t="n">
-        <v>16.05990783410138</v>
-      </c>
-      <c r="P51" t="n">
-        <v>3.073732718894009</v>
-      </c>
-      <c r="Q51" t="n">
-        <v>0.9907834101382489</v>
-      </c>
-      <c r="R51" t="n">
-        <v>0.2580645161290323</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N51" t="inlineStr"/>
+      <c r="O51" t="inlineStr"/>
+      <c r="P51" t="inlineStr"/>
+      <c r="Q51" t="inlineStr"/>
+      <c r="R51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -3616,58 +3546,48 @@
         <v>45597</v>
       </c>
       <c r="B56" t="n">
-        <v>9368</v>
+        <v>1188388</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>donkgordo</t>
+          <t>Iron</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="E56" t="n">
-        <v>85.42</v>
+        <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>3848</v>
+        <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>3640</v>
+        <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>967</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>630</v>
+        <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="K56" t="n">
-        <v>322</v>
+        <v>0</v>
       </c>
       <c r="L56" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="M56" t="n">
-        <v>230</v>
-      </c>
-      <c r="N56" t="n">
-        <v>16.7304347826087</v>
-      </c>
-      <c r="O56" t="n">
-        <v>15.82608695652174</v>
-      </c>
-      <c r="P56" t="n">
-        <v>2.739130434782609</v>
-      </c>
-      <c r="Q56" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="R56" t="n">
-        <v>0.2608695652173913</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N56" t="inlineStr"/>
+      <c r="O56" t="inlineStr"/>
+      <c r="P56" t="inlineStr"/>
+      <c r="Q56" t="inlineStr"/>
+      <c r="R56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
@@ -3906,57 +3826,57 @@
         <v>45627</v>
       </c>
       <c r="B61" t="n">
-        <v>9368</v>
+        <v>1188388</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>donkgordo</t>
+          <t>Iron</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="E61" t="n">
-        <v>82.64</v>
+        <v>86.56</v>
       </c>
       <c r="F61" t="n">
-        <v>3643</v>
+        <v>216</v>
       </c>
       <c r="G61" t="n">
-        <v>3625</v>
+        <v>166</v>
       </c>
       <c r="H61" t="n">
-        <v>909</v>
+        <v>60</v>
       </c>
       <c r="I61" t="n">
-        <v>609</v>
+        <v>21</v>
       </c>
       <c r="J61" t="n">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="K61" t="n">
-        <v>249</v>
+        <v>25</v>
       </c>
       <c r="L61" t="n">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="M61" t="n">
-        <v>230</v>
+        <v>12</v>
       </c>
       <c r="N61" t="n">
-        <v>15.83913043478261</v>
+        <v>18</v>
       </c>
       <c r="O61" t="n">
-        <v>15.76086956521739</v>
+        <v>13.83333333333333</v>
       </c>
       <c r="P61" t="n">
-        <v>2.647826086956522</v>
+        <v>1.75</v>
       </c>
       <c r="Q61" t="n">
-        <v>1.082608695652174</v>
+        <v>2.083333333333333</v>
       </c>
       <c r="R61" t="n">
-        <v>0.208695652173913</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
   </sheetData>

--- a/src/teste_gc.xlsx
+++ b/src/teste_gc.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R71"/>
+  <dimension ref="A1:R76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4349,6 +4349,286 @@
         <v>0.2</v>
       </c>
     </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>45717</v>
+      </c>
+      <c r="B72" t="n">
+        <v>225737</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>y4s</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="E72" t="n">
+        <v>90.54000000000001</v>
+      </c>
+      <c r="F72" t="n">
+        <v>1503</v>
+      </c>
+      <c r="G72" t="n">
+        <v>1140</v>
+      </c>
+      <c r="H72" t="n">
+        <v>383</v>
+      </c>
+      <c r="I72" t="n">
+        <v>191</v>
+      </c>
+      <c r="J72" t="n">
+        <v>48</v>
+      </c>
+      <c r="K72" t="n">
+        <v>69</v>
+      </c>
+      <c r="L72" t="n">
+        <v>30</v>
+      </c>
+      <c r="M72" t="n">
+        <v>82</v>
+      </c>
+      <c r="N72" t="n">
+        <v>18.32926829268293</v>
+      </c>
+      <c r="O72" t="n">
+        <v>13.90243902439024</v>
+      </c>
+      <c r="P72" t="n">
+        <v>2.329268292682927</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>0.8414634146341463</v>
+      </c>
+      <c r="R72" t="n">
+        <v>0.3658536585365854</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>45717</v>
+      </c>
+      <c r="B73" t="n">
+        <v>133415</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>danoco</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="E73" t="n">
+        <v>97.92</v>
+      </c>
+      <c r="F73" t="n">
+        <v>410</v>
+      </c>
+      <c r="G73" t="n">
+        <v>344</v>
+      </c>
+      <c r="H73" t="n">
+        <v>107</v>
+      </c>
+      <c r="I73" t="n">
+        <v>85</v>
+      </c>
+      <c r="J73" t="n">
+        <v>58</v>
+      </c>
+      <c r="K73" t="n">
+        <v>16</v>
+      </c>
+      <c r="L73" t="n">
+        <v>10</v>
+      </c>
+      <c r="M73" t="n">
+        <v>22</v>
+      </c>
+      <c r="N73" t="n">
+        <v>18.63636363636364</v>
+      </c>
+      <c r="O73" t="n">
+        <v>15.63636363636364</v>
+      </c>
+      <c r="P73" t="n">
+        <v>3.863636363636364</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>0.7272727272727273</v>
+      </c>
+      <c r="R73" t="n">
+        <v>0.4545454545454545</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>45717</v>
+      </c>
+      <c r="B74" t="n">
+        <v>2122400</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Ratinho</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="E74" t="n">
+        <v>57.12</v>
+      </c>
+      <c r="F74" t="n">
+        <v>398</v>
+      </c>
+      <c r="G74" t="n">
+        <v>631</v>
+      </c>
+      <c r="H74" t="n">
+        <v>83</v>
+      </c>
+      <c r="I74" t="n">
+        <v>47</v>
+      </c>
+      <c r="J74" t="n">
+        <v>39</v>
+      </c>
+      <c r="K74" t="n">
+        <v>47</v>
+      </c>
+      <c r="L74" t="n">
+        <v>5</v>
+      </c>
+      <c r="M74" t="n">
+        <v>37</v>
+      </c>
+      <c r="N74" t="n">
+        <v>10.75675675675676</v>
+      </c>
+      <c r="O74" t="n">
+        <v>17.05405405405405</v>
+      </c>
+      <c r="P74" t="n">
+        <v>1.27027027027027</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>1.27027027027027</v>
+      </c>
+      <c r="R74" t="n">
+        <v>0.1351351351351351</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>45717</v>
+      </c>
+      <c r="B75" t="n">
+        <v>591719</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>noway</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>0</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0</v>
+      </c>
+      <c r="L75" t="n">
+        <v>0</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0</v>
+      </c>
+      <c r="N75" t="inlineStr"/>
+      <c r="O75" t="inlineStr"/>
+      <c r="P75" t="inlineStr"/>
+      <c r="Q75" t="inlineStr"/>
+      <c r="R75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>45717</v>
+      </c>
+      <c r="B76" t="n">
+        <v>1188388</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Iron</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E76" t="n">
+        <v>61.22</v>
+      </c>
+      <c r="F76" t="n">
+        <v>9</v>
+      </c>
+      <c r="G76" t="n">
+        <v>15</v>
+      </c>
+      <c r="H76" t="n">
+        <v>3</v>
+      </c>
+      <c r="I76" t="n">
+        <v>1</v>
+      </c>
+      <c r="J76" t="n">
+        <v>22</v>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="n">
+        <v>1</v>
+      </c>
+      <c r="N76" t="n">
+        <v>9</v>
+      </c>
+      <c r="O76" t="n">
+        <v>15</v>
+      </c>
+      <c r="P76" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>1</v>
+      </c>
+      <c r="R76" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
